--- a/March'21/29.03.2021/Market Due.xlsx
+++ b/March'21/29.03.2021/Market Due.xlsx
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="94">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -1024,20 +1024,27 @@
     <t>Akram(42)</t>
   </si>
   <si>
-    <t>Date:28.03.2021</t>
+    <t>Date:30/31.03.2021</t>
   </si>
   <si>
-    <t>Till-07.00 PM</t>
+    <t>Date:30.03.2021</t>
   </si>
   <si>
-    <t>Date:29.03.2021(G.A Achievement)</t>
+    <t>Till-05.36 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,8 +1128,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,10 +1427,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1498,9 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1522,6 +1547,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1614,8 +1645,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1934,28 +1978,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2257,11 +2301,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="59">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="60"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -2294,28 +2338,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2659,11 +2703,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2694,28 +2738,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3066,11 +3110,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3101,28 +3145,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3472,11 +3516,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3507,28 +3551,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3890,11 +3934,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3925,28 +3969,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4308,11 +4352,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4345,28 +4389,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4728,19 +4772,19 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>200038</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="F29" s="44"/>
+      <c r="C29" s="74"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4773,28 +4817,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5156,19 +5200,19 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>215937</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="F29" s="44"/>
+      <c r="C29" s="74"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5201,28 +5245,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5584,19 +5628,19 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>181155</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="F29" s="44"/>
+      <c r="C29" s="74"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5629,28 +5673,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6018,19 +6062,19 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>185894</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="F29" s="44"/>
+      <c r="C29" s="74"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6063,28 +6107,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6463,19 +6507,19 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="73">
         <f>SUM(B6:B29)</f>
         <v>185236</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="F30" s="44"/>
+      <c r="C30" s="74"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6506,28 +6550,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6853,11 +6897,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6890,28 +6934,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7290,19 +7334,19 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="73">
         <f>SUM(B6:B29)</f>
         <v>175115</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="F30" s="44"/>
+      <c r="C30" s="74"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7335,28 +7379,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7733,19 +7777,19 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="73">
         <f>SUM(B6:B29)</f>
         <v>153118</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="F30" s="44"/>
+      <c r="C30" s="74"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7778,28 +7822,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8178,19 +8222,19 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="73">
         <f>SUM(B6:B29)</f>
         <v>167087</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="F30" s="44"/>
+      <c r="C30" s="74"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8208,14 +8252,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
@@ -8225,13 +8269,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -8240,8 +8284,8 @@
       <c r="B2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>91</v>
+      <c r="C2" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>61</v>
@@ -8262,7 +8306,7 @@
         <f>B3-C3</f>
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -8272,270 +8316,290 @@
         <v>20</v>
       </c>
       <c r="C4" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>19</v>
-      </c>
-      <c r="E4" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E5" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="28">
-        <v>7</v>
-      </c>
-      <c r="C6" s="28">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="B6" s="30">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="45">
-        <v>2</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="B7" s="30">
+        <v>3</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="40"/>
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28">
-        <v>12</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="E8" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="36"/>
       <c r="G8" s="34"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="28">
+        <v>10</v>
+      </c>
       <c r="C9" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="E9" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28">
+      <c r="B10" s="30">
+        <v>10</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="28">
+        <v>25</v>
+      </c>
       <c r="C11" s="28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="E11" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="45">
-        <v>0</v>
+      <c r="B12" s="28">
+        <v>15</v>
+      </c>
+      <c r="C12" s="44">
+        <v>3</v>
       </c>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="36">
-        <v>4</v>
-      </c>
-      <c r="D13" s="28">
+      <c r="B13" s="30">
+        <v>2</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="30">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E13" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="28">
+        <v>20</v>
+      </c>
       <c r="C14" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E14" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="28">
+        <v>10</v>
+      </c>
       <c r="C15" s="28">
         <v>1</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E15" s="37"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="28">
+        <v>10</v>
+      </c>
       <c r="C16" s="28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="E16" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="45">
-        <v>0</v>
+      <c r="B17" s="28">
+        <v>5</v>
+      </c>
+      <c r="C17" s="44">
+        <v>2</v>
       </c>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="28">
+        <v>20</v>
+      </c>
       <c r="C18" s="28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="E18" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28">
-        <v>4</v>
-      </c>
-      <c r="D19" s="28">
+      <c r="B19" s="30">
+        <v>15</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E19" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="28">
+        <v>30</v>
+      </c>
       <c r="C20" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E20" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="28">
+        <v>20</v>
+      </c>
       <c r="C21" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E21" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="45">
-        <v>0</v>
+      <c r="B22" s="33">
+        <v>2</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1</v>
       </c>
       <c r="D22" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -8543,33 +8607,35 @@
       <c r="A23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="45">
-        <v>0</v>
+      <c r="B23" s="28">
+        <v>5</v>
+      </c>
+      <c r="C23" s="44">
+        <v>1</v>
       </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="38">
         <f>SUM(B3:B23)</f>
-        <v>52</v>
-      </c>
-      <c r="C24" s="39">
+        <v>258</v>
+      </c>
+      <c r="C24" s="38">
         <f>SUM(C3:C23)</f>
-        <v>58</v>
-      </c>
-      <c r="D24" s="39">
+        <v>48</v>
+      </c>
+      <c r="D24" s="38">
         <f>SUM(D3:D23)</f>
-        <v>-6</v>
-      </c>
-      <c r="E24" s="40"/>
+        <v>210</v>
+      </c>
+      <c r="E24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8582,10 +8648,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8594,18 +8660,21 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
@@ -8620,322 +8689,744 @@
       </c>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="28">
-        <v>15000</v>
-      </c>
-      <c r="C3" s="28"/>
+        <v>60000</v>
+      </c>
+      <c r="C3" s="28">
+        <v>45000</v>
+      </c>
       <c r="D3" s="28">
         <f>B3-C3</f>
         <v>15000</v>
       </c>
       <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="77">
+        <v>20915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="28">
-        <v>8000</v>
-      </c>
-      <c r="C4" s="28"/>
+        <v>22000</v>
+      </c>
+      <c r="C4" s="28">
+        <v>18000</v>
+      </c>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="77">
+        <v>19148</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>22000</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>75000</v>
+      </c>
+      <c r="C5" s="28">
+        <v>60000</v>
+      </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="77">
+        <v>21093</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="28">
-        <v>8000</v>
-      </c>
-      <c r="C6" s="28"/>
+        <v>20000</v>
+      </c>
+      <c r="C6" s="28">
+        <v>15000</v>
+      </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="77">
+        <v>10363</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="28">
+        <v>60000</v>
+      </c>
+      <c r="N6" s="79">
+        <v>20915</v>
+      </c>
+      <c r="O6" s="28">
+        <f>M6-N6</f>
+        <v>39085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="28">
-        <v>8000</v>
-      </c>
-      <c r="C7" s="28"/>
+        <v>20000</v>
+      </c>
+      <c r="C7" s="28">
+        <v>15000</v>
+      </c>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E7" s="26"/>
       <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="77">
+        <v>15538</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="28">
+        <v>22000</v>
+      </c>
+      <c r="N7" s="79">
+        <v>19148</v>
+      </c>
+      <c r="O7" s="28">
+        <f t="shared" ref="O7:O26" si="1">M7-N7</f>
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="28">
-        <v>9000</v>
-      </c>
-      <c r="C8" s="28"/>
+        <v>20000</v>
+      </c>
+      <c r="C8" s="28">
+        <v>18000</v>
+      </c>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="77">
+        <v>13393</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="28">
+        <v>75000</v>
+      </c>
+      <c r="N8" s="79">
+        <v>21093</v>
+      </c>
+      <c r="O8" s="28">
+        <f t="shared" si="1"/>
+        <v>53907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="28">
-        <v>8000</v>
-      </c>
-      <c r="C9" s="28"/>
+        <v>18000</v>
+      </c>
+      <c r="C9" s="28">
+        <v>15000</v>
+      </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="77">
+        <v>8162</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="28">
+        <v>20000</v>
+      </c>
+      <c r="N9" s="79">
+        <v>10363</v>
+      </c>
+      <c r="O9" s="28">
+        <f t="shared" si="1"/>
+        <v>9637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="28">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="28"/>
+        <v>90000</v>
+      </c>
+      <c r="C10" s="28">
+        <v>80000</v>
+      </c>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="I10" s="77">
+        <v>59501</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="28">
         <v>20000</v>
       </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="79">
+        <v>15538</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" si="1"/>
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="28">
-        <v>22000</v>
-      </c>
-      <c r="C11" s="28"/>
+        <v>90000</v>
+      </c>
+      <c r="C11" s="28">
+        <v>65000</v>
+      </c>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="77">
+        <v>21367</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="28">
+        <v>20000</v>
+      </c>
+      <c r="N11" s="79">
+        <v>13393</v>
+      </c>
+      <c r="O11" s="28">
+        <f t="shared" si="1"/>
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="28">
-        <v>22000</v>
-      </c>
-      <c r="C12" s="28"/>
+        <v>80000</v>
+      </c>
+      <c r="C12" s="28">
+        <v>70000</v>
+      </c>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="77">
+        <v>42965</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="28">
+        <v>18000</v>
+      </c>
+      <c r="N12" s="79">
+        <v>8162</v>
+      </c>
+      <c r="O12" s="28">
+        <f t="shared" si="1"/>
+        <v>9838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="28">
-        <v>13000</v>
-      </c>
-      <c r="C13" s="28"/>
+        <v>40000</v>
+      </c>
+      <c r="C13" s="28">
+        <v>40000</v>
+      </c>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="77">
+        <v>17178</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="28">
+        <v>90000</v>
+      </c>
+      <c r="N13" s="79">
+        <v>59501</v>
+      </c>
+      <c r="O13" s="28">
+        <f t="shared" si="1"/>
+        <v>30499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="28">
-        <v>12000</v>
-      </c>
-      <c r="C14" s="28"/>
+        <v>30000</v>
+      </c>
+      <c r="C14" s="28">
+        <v>20000</v>
+      </c>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="77">
+        <v>19724</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="28">
+        <v>90000</v>
+      </c>
+      <c r="N14" s="79">
+        <v>21367</v>
+      </c>
+      <c r="O14" s="28">
+        <f t="shared" si="1"/>
+        <v>68633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="28">
-        <v>16000</v>
-      </c>
-      <c r="C15" s="28"/>
+        <v>50000</v>
+      </c>
+      <c r="C15" s="28">
+        <v>40000</v>
+      </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="77">
+        <v>39866</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="28">
+        <v>80000</v>
+      </c>
+      <c r="N15" s="79">
+        <v>42965</v>
+      </c>
+      <c r="O15" s="28">
+        <f t="shared" si="1"/>
+        <v>37035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="28">
-        <v>10000</v>
-      </c>
-      <c r="C16" s="28"/>
+        <v>28000</v>
+      </c>
+      <c r="C16" s="28">
+        <v>20000</v>
+      </c>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="78">
+        <v>12658</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="28">
+        <v>40000</v>
+      </c>
+      <c r="N16" s="79">
+        <v>17178</v>
+      </c>
+      <c r="O16" s="28">
+        <f t="shared" si="1"/>
+        <v>22822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="28">
-        <v>8000</v>
-      </c>
-      <c r="C17" s="28"/>
+        <v>20000</v>
+      </c>
+      <c r="C17" s="28">
+        <v>15000</v>
+      </c>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="77">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="28">
+        <v>30000</v>
+      </c>
+      <c r="N17" s="79">
+        <v>19724</v>
+      </c>
+      <c r="O17" s="28">
+        <f t="shared" si="1"/>
+        <v>10276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>25000</v>
-      </c>
-      <c r="C18" s="28"/>
+        <v>90000</v>
+      </c>
+      <c r="C18" s="28">
+        <v>70000</v>
+      </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="77">
+        <v>60000</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="28">
+        <v>50000</v>
+      </c>
+      <c r="N18" s="79">
+        <v>39866</v>
+      </c>
+      <c r="O18" s="28">
+        <f t="shared" si="1"/>
+        <v>10134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="28">
-        <v>12000</v>
-      </c>
-      <c r="C19" s="28"/>
+        <v>25000</v>
+      </c>
+      <c r="C19" s="28">
+        <v>15000</v>
+      </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="77">
+        <v>12622</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="28">
+        <v>28000</v>
+      </c>
+      <c r="N19" s="80">
+        <v>12658</v>
+      </c>
+      <c r="O19" s="28">
+        <f t="shared" si="1"/>
+        <v>15342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="28">
-        <v>25000</v>
-      </c>
-      <c r="C20" s="28"/>
+        <v>90000</v>
+      </c>
+      <c r="C20" s="28">
+        <v>70000</v>
+      </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="77">
+        <v>59982</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="28">
+        <v>20000</v>
+      </c>
+      <c r="N20" s="79">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="28">
-        <v>13000</v>
-      </c>
-      <c r="C21" s="28"/>
+        <v>30000</v>
+      </c>
+      <c r="C21" s="28">
+        <v>20000</v>
+      </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="77">
+        <v>28359</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="28">
+        <v>90000</v>
+      </c>
+      <c r="N21" s="79">
+        <v>60000</v>
+      </c>
+      <c r="O21" s="28">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="33">
-        <v>12000</v>
-      </c>
-      <c r="C22" s="28"/>
+      <c r="B22" s="28">
+        <v>30000</v>
+      </c>
+      <c r="C22" s="28">
+        <v>20000</v>
+      </c>
       <c r="D22" s="33">
         <f>B22-C22</f>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="77">
+        <v>21152</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="28">
+        <v>25000</v>
+      </c>
+      <c r="N22" s="79">
+        <v>12622</v>
+      </c>
+      <c r="O22" s="28">
+        <f t="shared" si="1"/>
+        <v>12378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="28">
-        <v>13000</v>
-      </c>
-      <c r="C23" s="28"/>
+        <v>30000</v>
+      </c>
+      <c r="C23" s="28">
+        <v>20000</v>
+      </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="77">
+        <v>16450</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="28">
+        <v>90000</v>
+      </c>
+      <c r="N23" s="79">
+        <v>59982</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="1"/>
+        <v>30018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="29">
         <f>SUM(B3:B23)</f>
-        <v>301000</v>
+        <v>958000</v>
       </c>
       <c r="C24" s="29">
         <f>SUM(C3:C23)</f>
-        <v>0</v>
+        <v>751000</v>
       </c>
       <c r="D24" s="29">
         <f>SUM(D3:D23)</f>
-        <v>301000</v>
+        <v>207000</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="28">
+        <v>30000</v>
+      </c>
+      <c r="N24" s="79">
+        <v>28359</v>
+      </c>
+      <c r="O24" s="28">
+        <f t="shared" si="1"/>
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L25" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="28">
+        <v>30000</v>
+      </c>
+      <c r="N25" s="79">
+        <v>21152</v>
+      </c>
+      <c r="O25" s="33">
+        <f>M25-N25</f>
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="28">
+        <v>30000</v>
+      </c>
+      <c r="N26" s="79">
+        <v>16450</v>
+      </c>
+      <c r="O26" s="28">
+        <f t="shared" ref="O26:O27" si="2">M26-N26</f>
+        <v>13550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="29">
+        <f>SUM(M6:M26)</f>
+        <v>958000</v>
+      </c>
+      <c r="N27" s="29">
+        <f>SUM(N6:N26)</f>
+        <v>530436</v>
+      </c>
+      <c r="O27" s="29">
+        <f>SUM(O6:O26)</f>
+        <v>427564</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8944,7 +9435,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8956,12 +9447,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9315,28 +9806,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -9656,11 +10147,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9691,28 +10182,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10044,11 +10535,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10079,28 +10570,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10432,11 +10923,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10467,28 +10958,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10824,11 +11315,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10859,28 +11350,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11222,11 +11713,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11257,28 +11748,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11622,11 +12113,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11657,28 +12148,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -12027,11 +12518,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="73">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/March'21/29.03.2021/Market Due.xlsx
+++ b/March'21/29.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="7" activeTab="22"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="7" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1137,25 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1431,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1555,6 +1574,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1645,24 +1670,179 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1978,28 +2158,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2301,11 +2481,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="61">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="62"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -2338,28 +2518,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2703,11 +2883,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2738,28 +2918,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3110,11 +3290,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3145,28 +3325,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3516,11 +3696,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3551,28 +3731,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3934,11 +4114,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3969,28 +4149,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4352,11 +4532,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4389,28 +4569,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4772,11 +4952,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>200038</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
       <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4817,28 +4997,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5200,11 +5380,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>215937</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
       <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5245,28 +5425,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5628,11 +5808,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>181155</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
       <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5673,28 +5853,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6062,11 +6242,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>185894</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
       <c r="F29" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -6107,28 +6287,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6507,11 +6687,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="75">
         <f>SUM(B6:B29)</f>
         <v>185236</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="76"/>
       <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -6550,28 +6730,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6897,11 +7077,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6934,28 +7114,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7334,11 +7514,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="75">
         <f>SUM(B6:B29)</f>
         <v>175115</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="76"/>
       <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7379,28 +7559,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7777,11 +7957,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="75">
         <f>SUM(B6:B29)</f>
         <v>153118</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="76"/>
       <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7822,28 +8002,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8222,11 +8402,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="75">
         <f>SUM(B6:B29)</f>
         <v>167087</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="76"/>
       <c r="F30" s="43"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8252,7 +8432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -8269,11 +8449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
     </row>
@@ -8650,8 +8830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8662,14 +8842,15 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
@@ -8704,7 +8885,7 @@
         <v>15000</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="I3" s="77">
+      <c r="I3" s="47">
         <v>20915</v>
       </c>
     </row>
@@ -8723,15 +8904,15 @@
         <v>4000</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="I4" s="77">
+      <c r="I4" s="47">
         <v>19148</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
@@ -8748,7 +8929,7 @@
         <v>15000</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="I5" s="77">
+      <c r="I5" s="47">
         <v>21093</v>
       </c>
       <c r="L5" s="28" t="s">
@@ -8779,21 +8960,21 @@
         <v>5000</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="I6" s="77">
+      <c r="I6" s="47">
         <v>10363</v>
       </c>
       <c r="L6" s="28" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="28">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="N6" s="79">
         <v>20915</v>
       </c>
       <c r="O6" s="28">
         <f>M6-N6</f>
-        <v>39085</v>
+        <v>24085</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8812,21 +8993,21 @@
       </c>
       <c r="E7" s="26"/>
       <c r="G7" s="34"/>
-      <c r="I7" s="77">
+      <c r="I7" s="47">
         <v>15538</v>
       </c>
       <c r="L7" s="28" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="28">
-        <v>22000</v>
-      </c>
-      <c r="N7" s="79">
-        <v>19148</v>
+        <v>18000</v>
+      </c>
+      <c r="N7" s="80">
+        <v>22250</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" ref="O7:O26" si="1">M7-N7</f>
-        <v>2852</v>
+        <f t="shared" ref="O7:O24" si="1">M7-N7</f>
+        <v>-4250</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8844,21 +9025,21 @@
         <v>2000</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="I8" s="77">
+      <c r="I8" s="47">
         <v>13393</v>
       </c>
       <c r="L8" s="28" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="28">
-        <v>75000</v>
-      </c>
-      <c r="N8" s="79">
+        <v>60000</v>
+      </c>
+      <c r="N8" s="80">
         <v>21093</v>
       </c>
       <c r="O8" s="28">
         <f t="shared" si="1"/>
-        <v>53907</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8876,21 +9057,21 @@
         <v>3000</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="I9" s="77">
+      <c r="I9" s="47">
         <v>8162</v>
       </c>
       <c r="L9" s="28" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="28">
-        <v>20000</v>
-      </c>
-      <c r="N9" s="79">
+        <v>15000</v>
+      </c>
+      <c r="N9" s="80">
         <v>10363</v>
       </c>
       <c r="O9" s="28">
         <f t="shared" si="1"/>
-        <v>9637</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8908,21 +9089,21 @@
         <v>10000</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="I10" s="77">
+      <c r="I10" s="47">
         <v>59501</v>
       </c>
       <c r="L10" s="28" t="s">
         <v>43</v>
       </c>
       <c r="M10" s="28">
-        <v>20000</v>
-      </c>
-      <c r="N10" s="79">
+        <v>15000</v>
+      </c>
+      <c r="N10" s="80">
         <v>15538</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" si="1"/>
-        <v>4462</v>
+        <v>-538</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8940,21 +9121,21 @@
         <v>25000</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="I11" s="77">
+      <c r="I11" s="47">
         <v>21367</v>
       </c>
       <c r="L11" s="28" t="s">
         <v>44</v>
       </c>
       <c r="M11" s="28">
-        <v>20000</v>
-      </c>
-      <c r="N11" s="79">
+        <v>18000</v>
+      </c>
+      <c r="N11" s="80">
         <v>13393</v>
       </c>
       <c r="O11" s="28">
         <f t="shared" si="1"/>
-        <v>6607</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8972,21 +9153,21 @@
         <v>10000</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="I12" s="77">
+      <c r="I12" s="47">
         <v>42965</v>
       </c>
       <c r="L12" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="28">
-        <v>18000</v>
-      </c>
-      <c r="N12" s="79">
+        <v>15000</v>
+      </c>
+      <c r="N12" s="80">
         <v>8162</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="1"/>
-        <v>9838</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9004,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="I13" s="77">
+      <c r="I13" s="47">
         <v>17178</v>
       </c>
       <c r="K13" t="s">
@@ -9014,14 +9195,14 @@
         <v>46</v>
       </c>
       <c r="M13" s="28">
-        <v>90000</v>
-      </c>
-      <c r="N13" s="79">
-        <v>59501</v>
+        <v>80000</v>
+      </c>
+      <c r="N13" s="80">
+        <v>82315</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" si="1"/>
-        <v>30499</v>
+        <v>-2315</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9039,21 +9220,21 @@
         <v>10000</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="I14" s="77">
+      <c r="I14" s="47">
         <v>19724</v>
       </c>
       <c r="L14" s="28" t="s">
         <v>47</v>
       </c>
       <c r="M14" s="28">
-        <v>90000</v>
-      </c>
-      <c r="N14" s="79">
+        <v>65000</v>
+      </c>
+      <c r="N14" s="80">
         <v>21367</v>
       </c>
       <c r="O14" s="28">
         <f t="shared" si="1"/>
-        <v>68633</v>
+        <v>43633</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9071,21 +9252,21 @@
         <v>10000</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="I15" s="77">
+      <c r="I15" s="47">
         <v>39866</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>48</v>
       </c>
       <c r="M15" s="28">
-        <v>80000</v>
-      </c>
-      <c r="N15" s="79">
+        <v>70000</v>
+      </c>
+      <c r="N15" s="80">
         <v>42965</v>
       </c>
       <c r="O15" s="28">
         <f t="shared" si="1"/>
-        <v>37035</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9103,7 +9284,7 @@
         <v>8000</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="I16" s="78">
+      <c r="I16" s="48">
         <v>12658</v>
       </c>
       <c r="L16" s="28" t="s">
@@ -9112,12 +9293,12 @@
       <c r="M16" s="28">
         <v>40000</v>
       </c>
-      <c r="N16" s="79">
-        <v>17178</v>
+      <c r="N16" s="80">
+        <v>19234</v>
       </c>
       <c r="O16" s="28">
         <f t="shared" si="1"/>
-        <v>22822</v>
+        <v>20766</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9135,21 +9316,21 @@
         <v>5000</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="I17" s="77">
+      <c r="I17" s="47">
         <v>10000</v>
       </c>
       <c r="L17" s="28" t="s">
         <v>50</v>
       </c>
       <c r="M17" s="28">
-        <v>30000</v>
-      </c>
-      <c r="N17" s="79">
+        <v>20000</v>
+      </c>
+      <c r="N17" s="80">
         <v>19724</v>
       </c>
       <c r="O17" s="28">
         <f t="shared" si="1"/>
-        <v>10276</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9167,21 +9348,21 @@
         <v>20000</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="I18" s="77">
+      <c r="I18" s="47">
         <v>60000</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>51</v>
       </c>
       <c r="M18" s="28">
-        <v>50000</v>
-      </c>
-      <c r="N18" s="79">
-        <v>39866</v>
+        <v>40000</v>
+      </c>
+      <c r="N18" s="80">
+        <v>40390</v>
       </c>
       <c r="O18" s="28">
         <f t="shared" si="1"/>
-        <v>10134</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9199,21 +9380,21 @@
         <v>10000</v>
       </c>
       <c r="E19" s="26"/>
-      <c r="I19" s="77">
+      <c r="I19" s="47">
         <v>12622</v>
       </c>
       <c r="L19" s="28" t="s">
         <v>52</v>
       </c>
       <c r="M19" s="28">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N19" s="80">
         <v>12658</v>
       </c>
       <c r="O19" s="28">
         <f t="shared" si="1"/>
-        <v>15342</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9231,21 +9412,21 @@
         <v>20000</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="I20" s="77">
+      <c r="I20" s="47">
         <v>59982</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>53</v>
       </c>
       <c r="M20" s="28">
-        <v>20000</v>
-      </c>
-      <c r="N20" s="79">
+        <v>15000</v>
+      </c>
+      <c r="N20" s="80">
         <v>10000</v>
       </c>
       <c r="O20" s="28">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9263,21 +9444,21 @@
         <v>10000</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="I21" s="77">
+      <c r="I21" s="47">
         <v>28359</v>
       </c>
       <c r="L21" s="28" t="s">
         <v>54</v>
       </c>
       <c r="M21" s="28">
-        <v>90000</v>
-      </c>
-      <c r="N21" s="79">
+        <v>70000</v>
+      </c>
+      <c r="N21" s="80">
         <v>60000</v>
       </c>
       <c r="O21" s="28">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9295,21 +9476,21 @@
         <v>10000</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="I22" s="77">
+      <c r="I22" s="47">
         <v>21152</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>55</v>
       </c>
       <c r="M22" s="28">
-        <v>25000</v>
-      </c>
-      <c r="N22" s="79">
-        <v>12622</v>
+        <v>15000</v>
+      </c>
+      <c r="N22" s="81">
+        <v>15000</v>
       </c>
       <c r="O22" s="28">
         <f t="shared" si="1"/>
-        <v>12378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9326,21 +9507,21 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="47">
         <v>16450</v>
       </c>
       <c r="L23" s="28" t="s">
         <v>56</v>
       </c>
       <c r="M23" s="28">
-        <v>90000</v>
-      </c>
-      <c r="N23" s="79">
-        <v>59982</v>
+        <v>70000</v>
+      </c>
+      <c r="N23" s="80">
+        <v>60000</v>
       </c>
       <c r="O23" s="28">
         <f t="shared" si="1"/>
-        <v>30018</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -9363,14 +9544,14 @@
         <v>57</v>
       </c>
       <c r="M24" s="28">
-        <v>30000</v>
-      </c>
-      <c r="N24" s="79">
+        <v>20000</v>
+      </c>
+      <c r="N24" s="80">
         <v>28359</v>
       </c>
       <c r="O24" s="28">
         <f t="shared" si="1"/>
-        <v>1641</v>
+        <v>-8359</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -9378,29 +9559,29 @@
         <v>58</v>
       </c>
       <c r="M25" s="28">
-        <v>30000</v>
-      </c>
-      <c r="N25" s="79">
+        <v>20000</v>
+      </c>
+      <c r="N25" s="80">
         <v>21152</v>
       </c>
       <c r="O25" s="33">
         <f>M25-N25</f>
-        <v>8848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-1152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L26" s="28" t="s">
         <v>59</v>
       </c>
       <c r="M26" s="28">
-        <v>30000</v>
-      </c>
-      <c r="N26" s="79">
-        <v>16450</v>
+        <v>20000</v>
+      </c>
+      <c r="N26" s="82">
+        <v>17170</v>
       </c>
       <c r="O26" s="28">
-        <f t="shared" ref="O26:O27" si="2">M26-N26</f>
-        <v>13550</v>
+        <f t="shared" ref="O26" si="2">M26-N26</f>
+        <v>2830</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -9409,15 +9590,15 @@
       </c>
       <c r="M27" s="29">
         <f>SUM(M6:M26)</f>
-        <v>958000</v>
+        <v>751000</v>
       </c>
       <c r="N27" s="29">
         <f>SUM(N6:N26)</f>
-        <v>530436</v>
+        <v>562048</v>
       </c>
       <c r="O27" s="29">
         <f>SUM(O6:O26)</f>
-        <v>427564</v>
+        <v>188952</v>
       </c>
     </row>
   </sheetData>
@@ -9425,6 +9606,61 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="L4:O4"/>
   </mergeCells>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9447,12 +9683,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9806,28 +10042,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10147,11 +10383,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10182,28 +10418,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10535,11 +10771,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10570,28 +10806,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10923,11 +11159,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10958,28 +11194,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11315,11 +11551,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11350,28 +11586,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11713,11 +11949,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11748,28 +11984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -12113,11 +12349,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12148,28 +12384,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -12518,11 +12754,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="75">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
